--- a/results/avg_travel_times_per_algorithm_lucky1.xlsx
+++ b/results/avg_travel_times_per_algorithm_lucky1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C4B96B3-4A50-456F-B31A-70D2FA59878A}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6590F721-6786-4F87-BA1A-FE09E45CC65D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C03F1F-8F95-406A-9C6A-7965F216271C}"/>
   </bookViews>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>travel time algo1</t>
-  </si>
-  <si>
-    <t>travel time algo1 with HB</t>
-  </si>
-  <si>
-    <t>travel time algo2a</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>travel time algo2a with HB</t>
   </si>
@@ -51,41 +42,47 @@
     <t>travel time algo2b with HB</t>
   </si>
   <si>
-    <t>travel time algo2b</t>
-  </si>
-  <si>
-    <t>travel time algo2c</t>
-  </si>
-  <si>
     <t>travel time algo2c with HB</t>
   </si>
   <si>
-    <t>snake with HB reference from different dataset</t>
-  </si>
-  <si>
-    <t>no algo travel time with HB</t>
-  </si>
-  <si>
-    <t>no algo travel time</t>
+    <t>travel time algo2a without HB</t>
+  </si>
+  <si>
+    <t>travel time algo2b without HB</t>
+  </si>
+  <si>
+    <t>travel time algo2c without HB</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>snake grid travel time with HB</t>
+  </si>
+  <si>
+    <t>snake grid travel time without HB</t>
+  </si>
+  <si>
+    <t>travel time no algo without HB</t>
+  </si>
+  <si>
+    <t>travel time no algo with HB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,9 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,111 +421,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C27F6-58EB-4411-8555-8CBD8FB636AA}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="1" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="36" customWidth="1"/>
+    <col min="5" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>502</v>
+      </c>
+      <c r="E2">
+        <v>5479</v>
+      </c>
+      <c r="F2">
+        <v>719</v>
+      </c>
+      <c r="G2">
+        <v>5684</v>
+      </c>
+      <c r="H2">
+        <v>535</v>
+      </c>
+      <c r="I2">
+        <v>5497</v>
+      </c>
+      <c r="J2">
+        <v>671</v>
+      </c>
+      <c r="K2">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2">
-        <v>2902</v>
-      </c>
-      <c r="D2">
-        <f xml:space="preserve"> 2902 + 2583</f>
-        <v>5485</v>
-      </c>
-      <c r="E2">
-        <v>3180</v>
-      </c>
-      <c r="F2">
-        <v>5797</v>
-      </c>
-      <c r="J2">
-        <v>4134</v>
-      </c>
-      <c r="K2">
-        <v>3895</v>
-      </c>
-      <c r="L2">
-        <f xml:space="preserve"> 3895 + 2630</f>
-        <v>6525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C3">
-        <v>2894</v>
-      </c>
       <c r="D3">
-        <f xml:space="preserve"> 2894 + 2585</f>
-        <v>5479</v>
+        <v>0.32618583499999998</v>
       </c>
       <c r="E3">
-        <v>3109</v>
+        <v>3.5601039640000001</v>
       </c>
       <c r="F3">
-        <f xml:space="preserve"> 3109+2576</f>
-        <v>5685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>2893</v>
-      </c>
-      <c r="D4">
-        <f xml:space="preserve"> 2893 + 2585</f>
-        <v>5478</v>
+        <v>0.46718648499999998</v>
+      </c>
+      <c r="G3">
+        <v>3.6933073420000002</v>
+      </c>
+      <c r="H3">
+        <v>0.34762832999999999</v>
+      </c>
+      <c r="I3">
+        <v>3.57179987</v>
+      </c>
+      <c r="J3">
+        <v>0.43599740100000001</v>
+      </c>
+      <c r="K3">
+        <v>3.6627680310000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/avg_travel_times_per_algorithm_lucky1.xlsx
+++ b/results/avg_travel_times_per_algorithm_lucky1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6590F721-6786-4F87-BA1A-FE09E45CC65D}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8C3580-4BA6-48F4-A530-AF07A1EE9E52}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C03F1F-8F95-406A-9C6A-7965F216271C}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,6 +476,12 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2">
+        <v>535</v>
+      </c>
+      <c r="C2">
+        <v>5504</v>
+      </c>
       <c r="D2">
         <v>502</v>
       </c>
@@ -504,6 +510,12 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.34762832999999999</v>
+      </c>
+      <c r="C3">
+        <v>3.5763482780000002</v>
       </c>
       <c r="D3">
         <v>0.32618583499999998</v>

--- a/results/avg_travel_times_per_algorithm_lucky1.xlsx
+++ b/results/avg_travel_times_per_algorithm_lucky1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8C3580-4BA6-48F4-A530-AF07A1EE9E52}"/>
+  <xr:revisionPtr revIDLastSave="219" documentId="8_{EEC528F9-A1A7-4E01-8BF0-0536D62D146F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F32660-C21A-4ED1-BEAB-2E35E61B7FC0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C03F1F-8F95-406A-9C6A-7965F216271C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>travel time algo2a with HB</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>travel time no algo with HB</t>
+  </si>
+  <si>
+    <t>travel time algo3 without HB</t>
+  </si>
+  <si>
+    <t>travel time algo3 with HB</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C27F6-58EB-4411-8555-8CBD8FB636AA}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,12 +441,14 @@
     <col min="5" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.88671875" customWidth="1"/>
     <col min="10" max="10" width="41.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -466,13 +474,19 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -501,13 +515,19 @@
         <v>5497</v>
       </c>
       <c r="J2">
+        <v>1154</v>
+      </c>
+      <c r="K2">
+        <v>6167</v>
+      </c>
+      <c r="L2">
         <v>671</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>5637</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -536,9 +556,15 @@
         <v>3.57179987</v>
       </c>
       <c r="J3">
+        <v>0.74983755699999999</v>
+      </c>
+      <c r="K3">
+        <v>4.0071474980000001</v>
+      </c>
+      <c r="L3">
         <v>0.43599740100000001</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>3.6627680310000001</v>
       </c>
     </row>
